--- a/data/raw/AC_data_dictionary_combined.xlsx
+++ b/data/raw/AC_data_dictionary_combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5421049_ad_unsw_edu_au/Documents/RedbackNMP/redback_ds_nmp/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D728CFFD-99C8-4040-876A-D95F59E2D970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D728CFFD-99C8-4040-876A-D95F59E2D970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EBE34E4-8FD5-4E9F-8F7C-092880C01B24}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2310" windowWidth="28800" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{D5EE908C-5A45-443A-9833-F30F3194D5D9}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8994" firstSheet="1" activeTab="1" xr2:uid="{D5EE908C-5A45-443A-9833-F30F3194D5D9}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -1668,14 +1668,14 @@
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.15625" customWidth="1"/>
+    <col min="3" max="3" width="58.68359375" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -2170,23 +2170,23 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" style="7" customWidth="1"/>
-    <col min="5" max="8" width="8.7109375" style="7"/>
-    <col min="9" max="9" width="31.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="7"/>
-    <col min="11" max="11" width="45.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="7"/>
+    <col min="1" max="1" width="10.578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="32.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="7" customWidth="1"/>
+    <col min="4" max="4" width="69.578125" style="7" customWidth="1"/>
+    <col min="5" max="8" width="8.68359375" style="7"/>
+    <col min="9" max="9" width="31.15625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.68359375" style="7"/>
+    <col min="11" max="11" width="45.578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.68359375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="19" t="s">
         <v>77</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -2763,7 +2763,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -2823,7 +2823,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -2843,7 +2843,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -2883,7 +2883,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -2903,7 +2903,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -2923,7 +2923,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -2943,7 +2943,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -3023,7 +3023,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -3131,7 +3131,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -3171,7 +3171,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -3211,7 +3211,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -3467,7 +3467,7 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="G71" s="11"/>
     </row>
-    <row r="72" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
     </row>
-    <row r="74" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
     </row>
-    <row r="75" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -3775,7 +3775,7 @@
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
     </row>
-    <row r="76" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -3793,7 +3793,7 @@
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -3865,7 +3865,7 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -3883,7 +3883,7 @@
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
     </row>
-    <row r="82" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -3919,7 +3919,7 @@
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="G84" s="11"/>
     </row>
-    <row r="85" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="G85" s="11"/>
     </row>
-    <row r="86" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="G86" s="11"/>
     </row>
-    <row r="87" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="G87" s="11"/>
     </row>
-    <row r="88" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="G88" s="11"/>
     </row>
-    <row r="89" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="G89" s="11"/>
     </row>
-    <row r="90" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="G97" s="11"/>
     </row>
-    <row r="98" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="L103" s="8"/>
     </row>
-    <row r="104" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
     </row>
-    <row r="105" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -4408,7 +4408,7 @@
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -4428,7 +4428,7 @@
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
     </row>
-    <row r="107" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
     </row>
-    <row r="108" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
     </row>
-    <row r="109" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -4508,7 +4508,7 @@
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
     </row>
-    <row r="111" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -4528,7 +4528,7 @@
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
     </row>
-    <row r="112" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
     </row>
-    <row r="113" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
     </row>
-    <row r="114" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
     </row>
-    <row r="115" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -4608,7 +4608,7 @@
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -4628,7 +4628,7 @@
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>307</v>
       </c>
       <c r="C118" s="11" t="str">
-        <f t="shared" ref="C118:C149" si="4">B118</f>
+        <f t="shared" ref="C118:C127" si="4">B118</f>
         <v>TyreContactPoint_FL_Z</v>
       </c>
       <c r="D118" s="11" t="s">
@@ -4668,7 +4668,7 @@
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
     </row>
-    <row r="119" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="15">
         <v>118</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -4728,7 +4728,7 @@
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
     </row>
-    <row r="122" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -4748,7 +4748,7 @@
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
     </row>
-    <row r="123" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -4768,7 +4768,7 @@
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
     </row>
-    <row r="124" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -4788,7 +4788,7 @@
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -4808,7 +4808,7 @@
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
     </row>
-    <row r="126" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -4828,7 +4828,7 @@
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
     </row>
-    <row r="127" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -4848,7 +4848,7 @@
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
     </row>
-    <row r="128" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -4868,7 +4868,7 @@
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
     </row>
-    <row r="129" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="G129" s="11"/>
     </row>
-    <row r="130" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -4908,7 +4908,7 @@
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -4926,7 +4926,7 @@
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
     </row>
-    <row r="132" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="G132" s="11"/>
     </row>
-    <row r="133" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A133" s="16">
         <v>132</v>
       </c>
@@ -5136,18 +5136,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5169,18 +5169,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C3D443-16CB-47C4-B4E8-D2E238F1ED75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACFEC09A-69D6-4616-8847-ECE9D9C79738}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C3D443-16CB-47C4-B4E8-D2E238F1ED75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>